--- a/project06/datas/apicases.xlsx
+++ b/project06/datas/apicases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="6" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="5715" windowWidth="12765" xWindow="0" yWindow="105"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
@@ -62,19 +62,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -443,11 +443,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" max="3" min="3" width="19.25"/>
-    <col customWidth="1" max="5" min="5" width="17.25"/>
-    <col customWidth="1" max="6" min="6" width="76.75"/>
-    <col customWidth="1" max="7" min="7" width="36.25"/>
-    <col customWidth="1" max="9" min="9" width="51.375"/>
+    <col width="19.25" customWidth="1" min="3" max="3"/>
+    <col width="17.25" customWidth="1" min="5" max="5"/>
+    <col width="76.75" customWidth="1" min="6" max="6"/>
+    <col width="36.25" customWidth="1" min="7" max="7"/>
+    <col width="51.375" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1033,7 +1033,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -1052,11 +1052,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" max="3" min="3" width="19.25"/>
-    <col customWidth="1" max="5" min="5" width="27.375"/>
-    <col customWidth="1" max="6" min="6" width="78.75"/>
-    <col customWidth="1" max="7" min="7" width="35.25"/>
-    <col customWidth="1" max="8" min="8" width="12.625"/>
+    <col width="19.25" customWidth="1" min="3" max="3"/>
+    <col width="27.375" customWidth="1" min="5" max="5"/>
+    <col width="78.75" customWidth="1" min="6" max="6"/>
+    <col width="35.25" customWidth="1" min="7" max="7"/>
+    <col width="12.625" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1342,7 +1342,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -1361,11 +1361,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" max="3" min="3" width="16.875"/>
-    <col customWidth="1" max="5" min="5" width="20.125"/>
-    <col customWidth="1" max="6" min="6" width="45"/>
-    <col customWidth="1" max="7" min="7" width="51.375"/>
-    <col customWidth="1" max="9" min="9" width="72.625"/>
+    <col width="16.875" customWidth="1" min="3" max="3"/>
+    <col width="20.125" customWidth="1" min="5" max="5"/>
+    <col width="45" customWidth="1" min="6" max="6"/>
+    <col width="51.375" customWidth="1" min="7" max="7"/>
+    <col width="72.625" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1741,7 +1741,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -1760,10 +1760,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" max="3" min="3" width="19.875"/>
-    <col customWidth="1" max="5" min="5" width="20.125"/>
-    <col customWidth="1" max="6" min="6" width="51.25"/>
-    <col customWidth="1" max="7" min="7" width="54"/>
+    <col width="19.875" customWidth="1" min="3" max="3"/>
+    <col width="20.125" customWidth="1" min="5" max="5"/>
+    <col width="51.25" customWidth="1" min="6" max="6"/>
+    <col width="54" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>不通过</t>
+          <t>通过</t>
         </is>
       </c>
     </row>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>不通过</t>
+          <t>通过</t>
         </is>
       </c>
     </row>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>不通过</t>
+          <t>通过</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>不通过</t>
+          <t>通过</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -2308,10 +2308,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" max="3" min="3" width="28"/>
-    <col customWidth="1" max="5" min="5" width="14.625"/>
-    <col customWidth="1" max="6" min="6" width="56.25"/>
-    <col customWidth="1" max="7" min="7" width="35.125"/>
+    <col width="28" customWidth="1" min="3" max="3"/>
+    <col width="14.625" customWidth="1" min="5" max="5"/>
+    <col width="56.25" customWidth="1" min="6" max="6"/>
+    <col width="35.125" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2802,7 +2802,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -2821,12 +2821,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="7.125"/>
-    <col customWidth="1" max="3" min="3" width="25.125"/>
-    <col customWidth="1" max="4" min="4" width="9.25"/>
-    <col customWidth="1" max="5" min="5" width="11.625"/>
-    <col customWidth="1" max="6" min="6" width="46.875"/>
-    <col customWidth="1" max="7" min="7" width="39.625"/>
+    <col width="7.125" customWidth="1" min="1" max="1"/>
+    <col width="25.125" customWidth="1" min="3" max="3"/>
+    <col width="9.25" customWidth="1" min="4" max="4"/>
+    <col width="11.625" customWidth="1" min="5" max="5"/>
+    <col width="46.875" customWidth="1" min="6" max="6"/>
+    <col width="39.625" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3127,7 +3127,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -3146,10 +3146,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" max="3" min="3" width="24.5"/>
-    <col customWidth="1" max="5" min="5" width="21.375"/>
-    <col customWidth="1" max="6" min="6" width="48.125"/>
-    <col customWidth="1" max="7" min="7" width="40.125"/>
+    <col width="24.5" customWidth="1" min="3" max="3"/>
+    <col width="21.375" customWidth="1" min="5" max="5"/>
+    <col width="48.125" customWidth="1" min="6" max="6"/>
+    <col width="40.125" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3199,7 +3199,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.5" r="2">
+    <row r="2" ht="28.5" customHeight="1">
       <c r="A2" t="n">
         <v>1</v>
       </c>
@@ -3369,7 +3369,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.5" r="6">
+    <row r="6" ht="28.5" customHeight="1">
       <c r="A6" t="n">
         <v>5</v>
       </c>
@@ -3409,7 +3409,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.5" r="7">
+    <row r="7" ht="28.5" customHeight="1">
       <c r="A7" t="n">
         <v>6</v>
       </c>
@@ -3449,7 +3449,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="28.5" r="8">
+    <row r="8" ht="28.5" customHeight="1">
       <c r="A8" t="n">
         <v>7</v>
       </c>
@@ -3490,7 +3490,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>